--- a/biology/Botanique/Rosa_bracteata/Rosa_bracteata.xlsx
+++ b/biology/Botanique/Rosa_bracteata/Rosa_bracteata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le rosier de Macartney (Rosa bracteata) est une espèce de plantes à fleurs de la famille des Rosaceae. C'est un rosier originaire du sud de la Chine, de Taïwan et du Japon (îles Ryukyu).
 Ce rosier a été introduit en Angleterre en 1793 par Lord Macartney. Il est naturalisé dans le sud-est des États-Unis.
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Rosa bracteata est un arbuste qui peut atteindre 4 mètres de haut. Ses tiges qui drageonnent sont armées d'aiguillons recourbés disposés par paires.
 Les feuilles persistantes sont composées de 5 à 9 folioles elliptiques  de 2 à 5 cm de long, au bords crénelés.
@@ -548,13 +562,15 @@
           <t>mutations et hybrides</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Contrairement à beaucoup d'autres rosiers originaires de Chine arrivés en Europe au cours des XVIIIe et XIXe siècles, cette espèce, après avoir donné de nombreux hybrides, ne joue plus un grand rôle dans la création de nouveaux cultivars.
 Rosa bracteata existe en Chine du Sud sous deux espèces (mutation ?) et elle s'est naturalisée dans le Sud-Est des États-Unis
 il ne reste plus que deux hybrides connus :
 Rosa × leonida ou 'Alba odorata' un grimpant à fleurs blanches doubles, Rosa bracteata × Rosa lævigata ;
-'Mermaid', rosier grimpant à grandes fleurs simples jaune canari qui fleurit de juillet à l'automne, est le seul encore cultivé. C'est Rosa bracteata × rosier thé jaune à fleurs doubles[1].</t>
+'Mermaid', rosier grimpant à grandes fleurs simples jaune canari qui fleurit de juillet à l'automne, est le seul encore cultivé. C'est Rosa bracteata × rosier thé jaune à fleurs doubles.</t>
         </is>
       </c>
     </row>
